--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Code</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>165B</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Articulation Points</t>
   </si>
 </sst>
 </file>
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,6 +477,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>796</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Code</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Articulation Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCC </t>
+  </si>
+  <si>
+    <t>SCC/TOPOSORT</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +516,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>11770</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>11504</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Code</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>SCC/TOPOSORT</t>
+  </si>
+  <si>
+    <t>MST KRUSKAL</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,6 +541,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>11733</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Code</t>
   </si>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +552,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>11631</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Code</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>MST KRUSKAL</t>
+  </si>
+  <si>
+    <t>MAXST</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,6 +566,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1234</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Code</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,6 +577,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>11094</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>MAXST</t>
+  </si>
+  <si>
+    <t>Toposort BFS</t>
+  </si>
+  <si>
+    <t>Bipartide Check</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,6 +594,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>11060</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>11396</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Toposort BFS</t>
   </si>
   <si>
-    <t>Bipartide Check</t>
+    <t>Bipartite Check</t>
   </si>
 </sst>
 </file>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,6 +616,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>11080</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,6 +627,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>315</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,6 +638,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>10765</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>10838</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Code</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Bipartite Check</t>
+  </si>
+  <si>
+    <t>Minimax MST</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,6 +663,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>10048</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Code</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Minimax MST</t>
+  </si>
+  <si>
+    <t>BFS SSSP</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +677,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>429</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Code</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>BFS SSSP</t>
+  </si>
+  <si>
+    <t>Secont best MST</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +691,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>10600</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Code</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Secont best MST</t>
+  </si>
+  <si>
+    <t>Count MST Chords</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,6 +705,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>11747</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Code</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Count MST Chords</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APSP FLOYD</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,6 +719,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>821</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Code</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve"> APSP FLOYD</t>
+  </si>
+  <si>
+    <t>FLOYD</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +733,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>10171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Code</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>FLOYD</t>
+  </si>
+  <si>
+    <t>BFS FF</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,6 +747,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>10653</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>Code</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>BFS FF</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Djikstra_Grid</t>
+  </si>
+  <si>
+    <t>Math_Vector Dot Product</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,6 +767,39 @@
         <v>27</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>11723</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>929</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>10773</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Math_Vector Dot Product</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Math_Adhoc</t>
+  </si>
+  <si>
+    <t>Ad Hoc</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,6 +809,50 @@
         <v>30</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>11875</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>382</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>10346</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Code</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Ad Hoc</t>
+  </si>
+  <si>
+    <t>DP_PrefixSum</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,7 +853,18 @@
         <v>10346</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>313</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Code</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>DP_PrefixSum</t>
+  </si>
+  <si>
+    <t>SPOJ</t>
+  </si>
+  <si>
+    <t>TIC TAC TOE(1)</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>TIC TAC TOE(2)</t>
+  </si>
+  <si>
+    <t>BFS 1 more if</t>
+  </si>
+  <si>
+    <t>Aggressive Cows</t>
+  </si>
+  <si>
+    <t>BS find last feasible</t>
   </si>
 </sst>
 </file>
@@ -441,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,6 +888,39 @@
         <v>34</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problems(UVA_CF)/Problems.xlsx
+++ b/Problems(UVA_CF)/Problems.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFC09FB0-7455-4EBB-A0FC-139253A7FDF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>Code</t>
   </si>
@@ -145,12 +146,18 @@
   </si>
   <si>
     <t>BS find last feasible</t>
+  </si>
+  <si>
+    <t>DP memo</t>
+  </si>
+  <si>
+    <t>489C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,6 +928,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
